--- a/biology/Médecine/Hôpital_de_Katriina/Hôpital_de_Katriina.xlsx
+++ b/biology/Médecine/Hôpital_de_Katriina/Hôpital_de_Katriina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Katriina</t>
+          <t>Hôpital_de_Katriina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Katriina (finnois : Katriinan sairaala) est un hôpital situé dans le quartier de Seutula à Vantaa en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Katriina</t>
+          <t>Hôpital_de_Katriina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est le seul hôpital du centre de santé de Vantaa et compte 155 lits.
-L'hôpital compte huit services, dont une assure des soins palliatifs, un hôpital de jour et une clinique externe de gériatrie[1].
-Le centre de santé de Katriina fonctionnait dans les locaux de l'hôpital, mais ses activités ont été transférées au centre de santé de Martinlaakso par une décision prise fin novembre 2011[2].
-L'hôpital de Katriina comprend également une unité gériatrique de 37 lits située à l'hôpital de Peijas[3].
+L'hôpital compte huit services, dont une assure des soins palliatifs, un hôpital de jour et une clinique externe de gériatrie.
+Le centre de santé de Katriina fonctionnait dans les locaux de l'hôpital, mais ses activités ont été transférées au centre de santé de Martinlaakso par une décision prise fin novembre 2011.
+L'hôpital de Katriina comprend également une unité gériatrique de 37 lits située à l'hôpital de Peijas.
 La garderie de Katriina, la garderie de Seutula et l'école dec Seutula sont situées à proximité de l'hôpital.
-Un parc animalier pour enfants est ouvert au manoir de Katrineberg[4].
+Un parc animalier pour enfants est ouvert au manoir de Katrineberg.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Katriina</t>
+          <t>Hôpital_de_Katriina</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le manoir de Katrineberg du village de Seutula est situé dans la zone de l'hôpital, et a été acheté par la municipalité rurale d'Helsinki en 1949.
 L'architecte Elsi Laisaari a conçu la partie ancienne de l'hôpital actuel et il a été construit du côté nord-est. du manoir, à moins de cent mètres, en 1957-1959.
-La maison de retraite municipale appelée Katriinakoti a commencé à fonctionner à cette époque et son nom a été changé en hôpital de Katriina en 1969. L'hôpital a été agrandi en 1979 et rénové entre 1991-1994 et 2005[5].
+La maison de retraite municipale appelée Katriinakoti a commencé à fonctionner à cette époque et son nom a été changé en hôpital de Katriina en 1969. L'hôpital a été agrandi en 1979 et rénové entre 1991-1994 et 2005.
 </t>
         </is>
       </c>
